--- a/DATA_goal/Junction_Flooding_441.xlsx
+++ b/DATA_goal/Junction_Flooding_441.xlsx
@@ -447,7 +447,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -464,10 +464,10 @@
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.94</v>
+        <v>49.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.3</v>
+        <v>22.96</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>89.68000000000001</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.83</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.83</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2</v>
+        <v>19.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_441.xlsx
+++ b/DATA_goal/Junction_Flooding_441.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45122.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45122.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.01</v>
+        <v>13.932</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.68</v>
+        <v>9.712999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.769</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.15</v>
+        <v>29.644</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.15</v>
+        <v>24.517</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.13</v>
+        <v>10.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.33</v>
+        <v>43.942</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.27</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.17</v>
+        <v>7.258</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.34</v>
+        <v>10.95</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.18</v>
+        <v>11.969</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.59</v>
+        <v>12.463</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.2</v>
+        <v>3.504</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.99</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.22</v>
+        <v>15.36</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.99</v>
+        <v>9.381</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.593</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.997</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.45</v>
+        <v>158.641</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.32</v>
+        <v>30.563</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.91</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.21</v>
+        <v>20.221</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.04</v>
+        <v>10.801</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.48</v>
+        <v>1.577</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.65</v>
+        <v>20.906</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.03</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.14</v>
+        <v>8.148</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.29</v>
+        <v>9.443</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.64</v>
+        <v>12.393</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.76</v>
+        <v>39.862</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.67</v>
+        <v>5.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.98</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45122.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.92</v>
+        <v>4.804</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.23</v>
+        <v>3.13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.948</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.23</v>
+        <v>10.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.41</v>
+        <v>8.286</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.99</v>
+        <v>3.781</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.96</v>
+        <v>18.964</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>5.817</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.12</v>
+        <v>2.438</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.25</v>
+        <v>3.619</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.12</v>
+        <v>4.126</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.27</v>
+        <v>4.193</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.05</v>
+        <v>1.215</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.85</v>
+        <v>3.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.07</v>
+        <v>5.262</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.23</v>
+        <v>3.408</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.98</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.473</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.68000000000001</v>
+        <v>49.937</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.76</v>
+        <v>10.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.16</v>
+        <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.2</v>
+        <v>6.963</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.56</v>
+        <v>3.802</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.613</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.1</v>
+        <v>8.513999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.2</v>
+        <v>3.065</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.2</v>
+        <v>2.921</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.48</v>
+        <v>3.359</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.65</v>
+        <v>4.221</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.96</v>
+        <v>17.392</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.16</v>
+        <v>1.832</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.14</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45122.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.75</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.5</v>
+        <v>17.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.46</v>
+        <v>1.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.02</v>
+        <v>51.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.76</v>
+        <v>42.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.34</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.57</v>
+        <v>69.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.49</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.68</v>
+        <v>12.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.56</v>
+        <v>19.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.29</v>
+        <v>20.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.19</v>
+        <v>22.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.81</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.22</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>26.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.63</v>
+        <v>15.82</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.31999999999999</v>
+        <v>278.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.78</v>
+        <v>52.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.39</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.83</v>
+        <v>35.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.77</v>
+        <v>18.73</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>2.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.72</v>
+        <v>34.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.76</v>
+        <v>13.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.84</v>
+        <v>15.98</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.73</v>
+        <v>21.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.98</v>
+        <v>62.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.81</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_441.xlsx
+++ b/DATA_goal/Junction_Flooding_441.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45122.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.619</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.458</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.456</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.361</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.513</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.013</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.703</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.178</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.065</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.024</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.048</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.877</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.432</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.918</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.745</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.242</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.744</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.457</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.169</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.091</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.616</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.148</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.247</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.407</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.662</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.794</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.753</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.55</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.409</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>49.22</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.641</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.523</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45122.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.932</v>
+        <v>6.005</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.712999999999999</v>
+        <v>3.683</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.769</v>
+        <v>0.677</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.644</v>
+        <v>11.153</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.517</v>
+        <v>8.153</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.964</v>
+        <v>3.128</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.942</v>
+        <v>12.332</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.87</v>
+        <v>5.267</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.258</v>
+        <v>2.174</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.95</v>
+        <v>3.343</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.969</v>
+        <v>4.178</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.463</v>
+        <v>5.591</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.504</v>
+        <v>1.199</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.903</v>
+        <v>2.992</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.36</v>
+        <v>5.217</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.381</v>
+        <v>2.995</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.593</v>
+        <v>0.63</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.997</v>
+        <v>0.005</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.641</v>
+        <v>49.448</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.563</v>
+        <v>10.322</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.064</v>
+        <v>3.908</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.221</v>
+        <v>7.213</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.801</v>
+        <v>4.038</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.577</v>
+        <v>0.484</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.906</v>
+        <v>5.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>3.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.148</v>
+        <v>2.137</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.443</v>
+        <v>3.288</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.393</v>
+        <v>4.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>39.862</v>
+        <v>9.763</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.55</v>
+        <v>1.672</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.582</v>
+        <v>3.981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45122.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.804</v>
+        <v>8.916</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.13</v>
+        <v>6.231</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.948</v>
+        <v>0.587</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.02</v>
+        <v>18.225</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.286</v>
+        <v>14.406</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.781</v>
+        <v>5.991</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.964</v>
+        <v>22.956</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.817</v>
+        <v>9.553000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.438</v>
+        <v>4.124</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.619</v>
+        <v>6.253</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.126</v>
+        <v>7.124</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.193</v>
+        <v>8.272</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.215</v>
+        <v>2.049</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.76</v>
+        <v>5.85</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.262</v>
+        <v>9.068</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.408</v>
+        <v>5.234</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.466</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.473</v>
+        <v>0.119</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.937</v>
+        <v>89.67700000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.74</v>
+        <v>17.764</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.47</v>
+        <v>6.164</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.963</v>
+        <v>12.2</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.802</v>
+        <v>6.557</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.613</v>
+        <v>0.834</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.513999999999999</v>
+        <v>11.105</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.065</v>
+        <v>5.197</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.921</v>
+        <v>4.198</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.359</v>
+        <v>5.484</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.221</v>
+        <v>7.652</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.392</v>
+        <v>19.962</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.832</v>
+        <v>3.156</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.34</v>
+        <v>7.143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45122.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.02</v>
+        <v>7.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.69</v>
+        <v>5.505</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.464</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.93</v>
+        <v>16.017</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.94</v>
+        <v>12.763</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.9</v>
+        <v>5.344</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.05</v>
+        <v>22.574</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.09</v>
+        <v>8.488</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.9</v>
+        <v>3.681</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.29</v>
+        <v>5.562</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.95</v>
+        <v>6.288</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.01</v>
+        <v>7.188</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.04</v>
+        <v>1.811</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.8</v>
+        <v>5.219</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.74</v>
+        <v>8.045</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.82</v>
+        <v>4.635</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.362</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.8</v>
+        <v>78.32299999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.47</v>
+        <v>15.781</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.35</v>
+        <v>5.395</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.28</v>
+        <v>10.832</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.73</v>
+        <v>5.771</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.57</v>
+        <v>0.737</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.1</v>
+        <v>10.717</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.33</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.61</v>
+        <v>3.755</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.98</v>
+        <v>4.837</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.94</v>
+        <v>6.729</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.44</v>
+        <v>19.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.69</v>
+        <v>6.336</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_441.xlsx
+++ b/DATA_goal/Junction_Flooding_441.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45122.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45122.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.005</v>
+        <v>13.932</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.683</v>
+        <v>9.712999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.677</v>
+        <v>1.769</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.153</v>
+        <v>29.644</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.153</v>
+        <v>24.517</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.128</v>
+        <v>10.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.332</v>
+        <v>43.942</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.267</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.174</v>
+        <v>7.258</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.343</v>
+        <v>10.95</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.178</v>
+        <v>11.969</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.591</v>
+        <v>12.463</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.199</v>
+        <v>3.504</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.992</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.217</v>
+        <v>15.36</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.995</v>
+        <v>9.381</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.593</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.005</v>
+        <v>0.997</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.448</v>
+        <v>158.641</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.322</v>
+        <v>30.563</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.908</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.213</v>
+        <v>20.221</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.038</v>
+        <v>10.801</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.484</v>
+        <v>1.577</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.65</v>
+        <v>20.906</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.03</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.137</v>
+        <v>8.148</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.288</v>
+        <v>9.443</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.64</v>
+        <v>12.393</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.763</v>
+        <v>39.862</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.672</v>
+        <v>5.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.981</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45122.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.916</v>
+        <v>4.804</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.231</v>
+        <v>3.13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.587</v>
+        <v>0.948</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.225</v>
+        <v>10.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.406</v>
+        <v>8.286</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.991</v>
+        <v>3.781</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.956</v>
+        <v>18.964</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.553000000000001</v>
+        <v>5.817</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.124</v>
+        <v>2.438</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.253</v>
+        <v>3.619</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.124</v>
+        <v>4.126</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.272</v>
+        <v>4.193</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.049</v>
+        <v>1.215</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.85</v>
+        <v>3.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.068</v>
+        <v>5.262</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.234</v>
+        <v>3.408</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.466</v>
+        <v>0.98</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.119</v>
+        <v>0.473</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.67700000000001</v>
+        <v>49.937</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.764</v>
+        <v>10.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.164</v>
+        <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.2</v>
+        <v>6.963</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.557</v>
+        <v>3.802</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.834</v>
+        <v>0.613</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.105</v>
+        <v>8.513999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.197</v>
+        <v>3.065</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.198</v>
+        <v>2.921</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.484</v>
+        <v>3.359</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.652</v>
+        <v>4.221</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.962</v>
+        <v>17.392</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.156</v>
+        <v>1.832</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.143</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45122.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.75</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.505</v>
+        <v>17.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.464</v>
+        <v>1.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.017</v>
+        <v>51.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.763</v>
+        <v>42.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.344</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.574</v>
+        <v>69.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.488</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.681</v>
+        <v>12.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.562</v>
+        <v>19.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.288</v>
+        <v>20.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.188</v>
+        <v>22.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.811</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.219</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.045</v>
+        <v>26.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.635</v>
+        <v>15.82</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.362</v>
+        <v>0.89</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.107</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.32299999999999</v>
+        <v>278.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.781</v>
+        <v>52.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.395</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.832</v>
+        <v>35.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.771</v>
+        <v>18.73</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.737</v>
+        <v>2.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.717</v>
+        <v>34.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.755</v>
+        <v>13.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.837</v>
+        <v>15.98</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.729</v>
+        <v>21.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.98</v>
+        <v>62.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.81</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.336</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>
